--- a/data/trans_orig/Q15_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Estudios-trans_orig.xlsx
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,04</t>
+          <t>0,01; 0,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,03</t>
+          <t>0,01; 0,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,09</t>
+          <t>0,01; 0,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,05</t>
+          <t>0,01; 0,06</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,04</t>
+          <t>0,02; 0,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q15_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de accidentes en los últimos 3 meses</t>
+          <t>Número medio de accidentes en los últimos 3 meses</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -879,12 +879,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,03</t>
+          <t>0,01; 0,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,03</t>
+          <t>0,02; 0,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1004,57 +1004,57 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,02; 0,06</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,05</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,04</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,1</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,05</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,06</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,04</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,03</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,04</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>0,02; 0,05</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,05</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,04</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,11</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,04</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,05</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,04</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,03</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="M9" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,04</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,04</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,03</t>
+          <t>0,02; 0,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,03</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
     </row>
